--- a/pred_ohlcv/54_21/2019-10-29 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 XMR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-12.83078328954301</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -860,7 +860,7 @@
         <v>6141.578923807689</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1598.408436396246</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1598.421236396246</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1598.421236396246</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1598.277836396246</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1599.111736396246</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1520.601536396247</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1520.585436396246</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1520.635436396246</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1520.327536396246</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1519.189236396246</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1514.140936396246</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1513.078736396246</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1513.837036396246</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1502.877936396246</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1507.497036396246</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1505.841036396246</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1505.841036396246</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1501.486236396246</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1501.486236396246</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-29 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 XMR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-12.83078328954301</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-5603.421076192311</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-563.9763761923114</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-1598.408436396246</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-1598.421236396246</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-1598.421236396246</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-1598.277836396246</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-1599.111736396246</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-1597.657036396246</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-1531.162136396247</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-1520.601536396247</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-1520.585436396246</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-1520.635436396246</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-1520.327536396246</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1519.189236396246</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-1513.837036396246</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-1500.352036396246</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-1502.877936396246</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-1507.497036396246</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-1505.841036396246</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-1505.841036396246</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-1501.486236396246</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-1501.486236396246</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
